--- a/data/pca/factorExposure/factorExposure_2015-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01820240011978673</v>
+        <v>0.01075137988105171</v>
       </c>
       <c r="C2">
-        <v>0.0283383882339416</v>
+        <v>0.0520360759288776</v>
       </c>
       <c r="D2">
-        <v>0.1465466040623017</v>
+        <v>0.1107762901478744</v>
       </c>
       <c r="E2">
-        <v>0.06192656513699824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06297805780845997</v>
+      </c>
+      <c r="F2">
+        <v>-0.03398391320760537</v>
+      </c>
+      <c r="G2">
+        <v>0.1464399393394805</v>
+      </c>
+      <c r="H2">
+        <v>-0.05591341749623761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04583123530775351</v>
+        <v>0.02239524623161749</v>
       </c>
       <c r="C4">
-        <v>0.07774058253341991</v>
+        <v>0.1147918827475167</v>
       </c>
       <c r="D4">
-        <v>0.1032902775993086</v>
+        <v>0.106941474814779</v>
       </c>
       <c r="E4">
-        <v>0.116513939705275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.06501518217271417</v>
+      </c>
+      <c r="F4">
+        <v>-0.08943018779723856</v>
+      </c>
+      <c r="G4">
+        <v>0.02267747991823471</v>
+      </c>
+      <c r="H4">
+        <v>0.075527843396589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02957209424544593</v>
+        <v>0.03433290602905637</v>
       </c>
       <c r="C6">
-        <v>0.01818213014735762</v>
+        <v>0.0381437373388112</v>
       </c>
       <c r="D6">
-        <v>0.1082838895574194</v>
+        <v>0.08826354508975391</v>
       </c>
       <c r="E6">
-        <v>0.07622851321148735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.09422351680657873</v>
+      </c>
+      <c r="F6">
+        <v>-0.03903507718744726</v>
+      </c>
+      <c r="G6">
+        <v>-0.001341288951721645</v>
+      </c>
+      <c r="H6">
+        <v>-0.01378781289342559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002408188164374518</v>
+        <v>0.006651911808518191</v>
       </c>
       <c r="C7">
-        <v>0.0256093095790058</v>
+        <v>0.04092468274079968</v>
       </c>
       <c r="D7">
-        <v>0.1011479287083932</v>
+        <v>0.08450225356100723</v>
       </c>
       <c r="E7">
-        <v>0.04696719639214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08774979951593431</v>
+      </c>
+      <c r="F7">
+        <v>-0.0130328503632042</v>
+      </c>
+      <c r="G7">
+        <v>-0.008900419310824876</v>
+      </c>
+      <c r="H7">
+        <v>0.02670563896713786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0008173152626688314</v>
+        <v>-0.004988482169401069</v>
       </c>
       <c r="C8">
-        <v>0.02670685932519009</v>
+        <v>0.03788234418752136</v>
       </c>
       <c r="D8">
-        <v>0.07418135616708146</v>
+        <v>0.05577098068055701</v>
       </c>
       <c r="E8">
-        <v>0.05966131925929971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05322606025582469</v>
+      </c>
+      <c r="F8">
+        <v>-0.04827055543549286</v>
+      </c>
+      <c r="G8">
+        <v>0.07622188623416251</v>
+      </c>
+      <c r="H8">
+        <v>0.04201514000995688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03456009137601388</v>
+        <v>0.01538208896794014</v>
       </c>
       <c r="C9">
-        <v>0.06785210367514495</v>
+        <v>0.09405107797012516</v>
       </c>
       <c r="D9">
-        <v>0.1067312018275903</v>
+        <v>0.09346273246576038</v>
       </c>
       <c r="E9">
-        <v>0.09544800955926465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.05582361546066179</v>
+      </c>
+      <c r="F9">
+        <v>-0.05918262640164006</v>
+      </c>
+      <c r="G9">
+        <v>0.005601185150252011</v>
+      </c>
+      <c r="H9">
+        <v>0.02859759503988854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1960823981509856</v>
+        <v>0.2439371764955093</v>
       </c>
       <c r="C10">
-        <v>-0.1563221237107104</v>
+        <v>-0.09321097900526204</v>
       </c>
       <c r="D10">
-        <v>-0.0398332153357374</v>
+        <v>-0.01525206353197081</v>
       </c>
       <c r="E10">
-        <v>0.02981434395327946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01874983041520017</v>
+      </c>
+      <c r="F10">
+        <v>-0.04248590741607548</v>
+      </c>
+      <c r="G10">
+        <v>-0.006468093828199518</v>
+      </c>
+      <c r="H10">
+        <v>-0.003186810754816526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01305344409662058</v>
+        <v>0.01005962004561107</v>
       </c>
       <c r="C11">
-        <v>0.04301791714227986</v>
+        <v>0.06104226327099063</v>
       </c>
       <c r="D11">
-        <v>0.04179620897558906</v>
+        <v>0.0342660409588787</v>
       </c>
       <c r="E11">
-        <v>-0.005298985169139521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03973446109833031</v>
+      </c>
+      <c r="F11">
+        <v>0.01184431586730896</v>
+      </c>
+      <c r="G11">
+        <v>-0.003946033086105079</v>
+      </c>
+      <c r="H11">
+        <v>0.02209066223784706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0110279423489989</v>
+        <v>0.009940728438348685</v>
       </c>
       <c r="C12">
-        <v>0.04292642372466607</v>
+        <v>0.05144542554434264</v>
       </c>
       <c r="D12">
-        <v>0.0572867549597741</v>
+        <v>0.04189271322549282</v>
       </c>
       <c r="E12">
-        <v>0.01295482284441437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03474903062775075</v>
+      </c>
+      <c r="F12">
+        <v>0.01232370055890347</v>
+      </c>
+      <c r="G12">
+        <v>-0.0142506251934059</v>
+      </c>
+      <c r="H12">
+        <v>-0.01580710018893722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00758124491574623</v>
+        <v>0.004642099256400033</v>
       </c>
       <c r="C13">
-        <v>0.02824056701518697</v>
+        <v>0.05997874856084276</v>
       </c>
       <c r="D13">
-        <v>0.1284631954524539</v>
+        <v>0.1455999491380841</v>
       </c>
       <c r="E13">
-        <v>0.08369094064544108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.08814529739561175</v>
+      </c>
+      <c r="F13">
+        <v>-0.03897818970357936</v>
+      </c>
+      <c r="G13">
+        <v>0.06192272563461815</v>
+      </c>
+      <c r="H13">
+        <v>-0.07053255130653407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.008732622403177327</v>
+        <v>0.003482765284774564</v>
       </c>
       <c r="C14">
-        <v>0.01670809576761868</v>
+        <v>0.03428073252387357</v>
       </c>
       <c r="D14">
-        <v>0.07430774626763316</v>
+        <v>0.08260379400628735</v>
       </c>
       <c r="E14">
-        <v>0.04106789493541069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09189173509670255</v>
+      </c>
+      <c r="F14">
+        <v>-0.03079076145661318</v>
+      </c>
+      <c r="G14">
+        <v>0.01841900422607059</v>
+      </c>
+      <c r="H14">
+        <v>-0.02792500314821918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002756249135962434</v>
+        <v>-0.003380435388398803</v>
       </c>
       <c r="C15">
-        <v>0.01204818686755883</v>
+        <v>0.03118232292601478</v>
       </c>
       <c r="D15">
-        <v>0.0471166026989563</v>
+        <v>0.05739800413138597</v>
       </c>
       <c r="E15">
-        <v>0.01603319812105116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.04258321747991398</v>
+      </c>
+      <c r="F15">
+        <v>-0.007410290732945561</v>
+      </c>
+      <c r="G15">
+        <v>0.02639946043065629</v>
+      </c>
+      <c r="H15">
+        <v>0.01454224297411398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01237356224722573</v>
+        <v>0.009617936942170379</v>
       </c>
       <c r="C16">
-        <v>0.03964251533056891</v>
+        <v>0.0529399268500301</v>
       </c>
       <c r="D16">
-        <v>0.04544430051291647</v>
+        <v>0.03670791213894081</v>
       </c>
       <c r="E16">
-        <v>0.006729711084708031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04027884897684702</v>
+      </c>
+      <c r="F16">
+        <v>0.006736266355715045</v>
+      </c>
+      <c r="G16">
+        <v>-0.01479837338434437</v>
+      </c>
+      <c r="H16">
+        <v>0.01018221656131471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002114358014852445</v>
+        <v>-0.0009729819847061711</v>
       </c>
       <c r="C19">
-        <v>0.02077386081088813</v>
+        <v>0.01719662046414493</v>
       </c>
       <c r="D19">
-        <v>0.06915242039886148</v>
+        <v>0.0375616419019334</v>
       </c>
       <c r="E19">
-        <v>0.03755929355611327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.003232659426728172</v>
+      </c>
+      <c r="F19">
+        <v>-0.006686405543396517</v>
+      </c>
+      <c r="G19">
+        <v>0.01922082197146441</v>
+      </c>
+      <c r="H19">
+        <v>-0.01556523933056455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001200898848102244</v>
+        <v>0.005013073362545465</v>
       </c>
       <c r="C20">
-        <v>0.02714303735522731</v>
+        <v>0.04518675498192903</v>
       </c>
       <c r="D20">
-        <v>0.06831200713630814</v>
+        <v>0.07373120667475531</v>
       </c>
       <c r="E20">
-        <v>0.05565387871701182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05507255815623303</v>
+      </c>
+      <c r="F20">
+        <v>-0.0243071183051995</v>
+      </c>
+      <c r="G20">
+        <v>-0.01183403197927318</v>
+      </c>
+      <c r="H20">
+        <v>0.03126053185427025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001322529926750571</v>
+        <v>0.003021165100967735</v>
       </c>
       <c r="C21">
-        <v>0.03062197526626969</v>
+        <v>0.04510285099215422</v>
       </c>
       <c r="D21">
-        <v>0.1151074508287561</v>
+        <v>0.1067249066693614</v>
       </c>
       <c r="E21">
-        <v>0.1244484310001248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.07284052773966258</v>
+      </c>
+      <c r="F21">
+        <v>-0.09835747060210326</v>
+      </c>
+      <c r="G21">
+        <v>0.07503776184301118</v>
+      </c>
+      <c r="H21">
+        <v>-0.08414036303006542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005478617348894311</v>
+        <v>-0.005859026486884951</v>
       </c>
       <c r="C22">
-        <v>0.05308246122594731</v>
+        <v>0.08608788452347925</v>
       </c>
       <c r="D22">
-        <v>0.2169875007630393</v>
+        <v>0.2130793001413695</v>
       </c>
       <c r="E22">
-        <v>0.09905012511085212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06654347664121484</v>
+      </c>
+      <c r="F22">
+        <v>-0.03479708634858686</v>
+      </c>
+      <c r="G22">
+        <v>0.252541315965644</v>
+      </c>
+      <c r="H22">
+        <v>0.1211707070027803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005911673042851688</v>
+        <v>-0.002754329017072888</v>
       </c>
       <c r="C23">
-        <v>0.05348631343605975</v>
+        <v>0.08784959623858446</v>
       </c>
       <c r="D23">
-        <v>0.2158939500528587</v>
+        <v>0.2165820184503124</v>
       </c>
       <c r="E23">
-        <v>0.09908269774000353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06363309198779499</v>
+      </c>
+      <c r="F23">
+        <v>-0.03827987605999292</v>
+      </c>
+      <c r="G23">
+        <v>0.2462565012723529</v>
+      </c>
+      <c r="H23">
+        <v>0.1150936244368974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01770075135071934</v>
+        <v>0.01068910979188329</v>
       </c>
       <c r="C24">
-        <v>0.06139873937234841</v>
+        <v>0.07052904995743926</v>
       </c>
       <c r="D24">
-        <v>0.06161092307467747</v>
+        <v>0.03778592804242899</v>
       </c>
       <c r="E24">
-        <v>0.0119539603993827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04988603358520061</v>
+      </c>
+      <c r="F24">
+        <v>0.006220417779099386</v>
+      </c>
+      <c r="G24">
+        <v>0.003007745588807351</v>
+      </c>
+      <c r="H24">
+        <v>0.01369774529967721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01847191836620299</v>
+        <v>0.01526857547336874</v>
       </c>
       <c r="C25">
-        <v>0.05294619465868845</v>
+        <v>0.06490913967657078</v>
       </c>
       <c r="D25">
-        <v>0.05113653507419179</v>
+        <v>0.04106069670409127</v>
       </c>
       <c r="E25">
-        <v>0.01561168771817007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03290814125708417</v>
+      </c>
+      <c r="F25">
+        <v>0.003572746978043796</v>
+      </c>
+      <c r="G25">
+        <v>-0.01050574437043641</v>
+      </c>
+      <c r="H25">
+        <v>0.009250383185718801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007400388348033106</v>
+        <v>0.01669784210020846</v>
       </c>
       <c r="C26">
-        <v>0.01835835947746351</v>
+        <v>0.03264944012787331</v>
       </c>
       <c r="D26">
-        <v>0.06030189498506754</v>
+        <v>0.04962393473198119</v>
       </c>
       <c r="E26">
-        <v>0.04270499617617263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06571790413151141</v>
+      </c>
+      <c r="F26">
+        <v>-0.0456132233495088</v>
+      </c>
+      <c r="G26">
+        <v>0.02888003606269895</v>
+      </c>
+      <c r="H26">
+        <v>0.002762632844996461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2797716817645703</v>
+        <v>0.3138862165173995</v>
       </c>
       <c r="C28">
-        <v>-0.1690001566085599</v>
+        <v>-0.09054976802613107</v>
       </c>
       <c r="D28">
-        <v>-0.006499938786347663</v>
+        <v>-0.01172296605750233</v>
       </c>
       <c r="E28">
-        <v>0.03217826414136004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05277053881045504</v>
+      </c>
+      <c r="F28">
+        <v>-0.04467779945510615</v>
+      </c>
+      <c r="G28">
+        <v>0.06143847118847878</v>
+      </c>
+      <c r="H28">
+        <v>0.01896440455634053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003454409597810657</v>
+        <v>0.002234740239289068</v>
       </c>
       <c r="C29">
-        <v>0.02090487319848617</v>
+        <v>0.04066882160722347</v>
       </c>
       <c r="D29">
-        <v>0.07099575038135576</v>
+        <v>0.08629893975292474</v>
       </c>
       <c r="E29">
-        <v>0.04948008775997877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1058871689831528</v>
+      </c>
+      <c r="F29">
+        <v>-0.03612696494654839</v>
+      </c>
+      <c r="G29">
+        <v>0.01375983677530878</v>
+      </c>
+      <c r="H29">
+        <v>-0.03548522818605906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02740984254165212</v>
+        <v>0.01798422126302883</v>
       </c>
       <c r="C30">
-        <v>0.07205131980747484</v>
+        <v>0.0999493946899737</v>
       </c>
       <c r="D30">
-        <v>0.1475656121987004</v>
+        <v>0.1102104716619492</v>
       </c>
       <c r="E30">
-        <v>0.06728413632994772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.09491630733474082</v>
+      </c>
+      <c r="F30">
+        <v>-0.01252267252540001</v>
+      </c>
+      <c r="G30">
+        <v>0.01941950644704787</v>
+      </c>
+      <c r="H30">
+        <v>0.04590768483116917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03283960614730289</v>
+        <v>0.01100741307501616</v>
       </c>
       <c r="C31">
-        <v>0.08522195507122632</v>
+        <v>0.09510626784873469</v>
       </c>
       <c r="D31">
-        <v>0.0540734145121292</v>
+        <v>0.02961336321057109</v>
       </c>
       <c r="E31">
-        <v>0.02665436411259367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02612543359804773</v>
+      </c>
+      <c r="F31">
+        <v>-0.01586442096179933</v>
+      </c>
+      <c r="G31">
+        <v>0.01655826529643465</v>
+      </c>
+      <c r="H31">
+        <v>0.006768592462929647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01540240086000623</v>
+        <v>0.01427154099925248</v>
       </c>
       <c r="C32">
-        <v>0.04190453827183908</v>
+        <v>0.05094934225611339</v>
       </c>
       <c r="D32">
-        <v>0.08877743281292248</v>
+        <v>0.07523040005255792</v>
       </c>
       <c r="E32">
-        <v>0.07355701170400954</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01893015167980196</v>
+      </c>
+      <c r="F32">
+        <v>-0.04842478293059388</v>
+      </c>
+      <c r="G32">
+        <v>0.03080264634592117</v>
+      </c>
+      <c r="H32">
+        <v>-0.02522664985068841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006161538475047233</v>
+        <v>0.008015453083043869</v>
       </c>
       <c r="C33">
-        <v>0.04088094788158544</v>
+        <v>0.06539085121395978</v>
       </c>
       <c r="D33">
-        <v>0.1051052524067575</v>
+        <v>0.1029486368647924</v>
       </c>
       <c r="E33">
-        <v>0.06858055837074054</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.06801200215624431</v>
+      </c>
+      <c r="F33">
+        <v>-0.02935281540470586</v>
+      </c>
+      <c r="G33">
+        <v>0.01192261743484158</v>
+      </c>
+      <c r="H33">
+        <v>0.003892020462125916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01492214822472597</v>
+        <v>0.00946607546895048</v>
       </c>
       <c r="C34">
-        <v>0.06144497617424928</v>
+        <v>0.06290252979136332</v>
       </c>
       <c r="D34">
-        <v>0.05452372157072719</v>
+        <v>0.01926835240772653</v>
       </c>
       <c r="E34">
-        <v>-0.03169461814088319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03616734546691727</v>
+      </c>
+      <c r="F34">
+        <v>0.03848249351402967</v>
+      </c>
+      <c r="G34">
+        <v>0.003906936706250614</v>
+      </c>
+      <c r="H34">
+        <v>-0.001341432569996996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0001725996951515584</v>
+        <v>0.003886313025777513</v>
       </c>
       <c r="C35">
-        <v>0.0004663333254911766</v>
+        <v>0.0157765413884141</v>
       </c>
       <c r="D35">
-        <v>1.540656600725665e-05</v>
+        <v>0.03351170539698246</v>
       </c>
       <c r="E35">
-        <v>-0.0004347995846444713</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02377830091665669</v>
+      </c>
+      <c r="F35">
+        <v>-0.01779327653519799</v>
+      </c>
+      <c r="G35">
+        <v>-0.002209098451380816</v>
+      </c>
+      <c r="H35">
+        <v>-0.004369332545954469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008916271546474595</v>
+        <v>0.01157055675939935</v>
       </c>
       <c r="C36">
-        <v>0.008776850361567428</v>
+        <v>0.0251481103813706</v>
       </c>
       <c r="D36">
-        <v>0.0621360761287512</v>
+        <v>0.06032410332856732</v>
       </c>
       <c r="E36">
-        <v>0.06305037559689074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05609593363430302</v>
+      </c>
+      <c r="F36">
+        <v>-0.047665900569838</v>
+      </c>
+      <c r="G36">
+        <v>0.0161878003364527</v>
+      </c>
+      <c r="H36">
+        <v>0.002716667389285421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005626821337726052</v>
+        <v>0.01123151369162322</v>
       </c>
       <c r="C38">
-        <v>0.009288790727037888</v>
+        <v>0.02964360242216089</v>
       </c>
       <c r="D38">
-        <v>0.09176375463416074</v>
+        <v>0.08539335792552009</v>
       </c>
       <c r="E38">
-        <v>0.03699101672304175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.04438644284332375</v>
+      </c>
+      <c r="F38">
+        <v>-0.008068843064181987</v>
+      </c>
+      <c r="G38">
+        <v>0.0372137083982284</v>
+      </c>
+      <c r="H38">
+        <v>0.03819854731755751</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01125946522851519</v>
+        <v>0.006012233179492337</v>
       </c>
       <c r="C39">
-        <v>0.06288632790454875</v>
+        <v>0.08864164281433638</v>
       </c>
       <c r="D39">
-        <v>0.102838687897816</v>
+        <v>0.07771622618398809</v>
       </c>
       <c r="E39">
-        <v>0.02745561348489294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0873201569215961</v>
+      </c>
+      <c r="F39">
+        <v>0.007968359625389413</v>
+      </c>
+      <c r="G39">
+        <v>-0.0001354823459727774</v>
+      </c>
+      <c r="H39">
+        <v>0.01304189855011742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01586724404015378</v>
+        <v>0.01339315056680755</v>
       </c>
       <c r="C40">
-        <v>0.02483727736098439</v>
+        <v>0.04205617652074652</v>
       </c>
       <c r="D40">
-        <v>0.1137625951185958</v>
+        <v>0.08006231818649329</v>
       </c>
       <c r="E40">
-        <v>0.02490367443688905</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07127438847675194</v>
+      </c>
+      <c r="F40">
+        <v>0.02532522563298879</v>
+      </c>
+      <c r="G40">
+        <v>0.08551811532262138</v>
+      </c>
+      <c r="H40">
+        <v>-0.01729114371079779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01059038400776435</v>
+        <v>0.01866434598907475</v>
       </c>
       <c r="C41">
-        <v>0.006547066618070006</v>
+        <v>0.02442367337907528</v>
       </c>
       <c r="D41">
-        <v>0.03257410538685052</v>
+        <v>0.03957256731192343</v>
       </c>
       <c r="E41">
-        <v>0.02898297381586368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01773962621834058</v>
+      </c>
+      <c r="F41">
+        <v>-0.02019077902731612</v>
+      </c>
+      <c r="G41">
+        <v>0.01089650605591998</v>
+      </c>
+      <c r="H41">
+        <v>0.004922693759520504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0009161516924053686</v>
+        <v>0.01005799351365287</v>
       </c>
       <c r="C43">
-        <v>0.001490283628203859</v>
+        <v>0.01724894919997712</v>
       </c>
       <c r="D43">
-        <v>0.04537180664133347</v>
+        <v>0.04861161485087715</v>
       </c>
       <c r="E43">
-        <v>0.03327147191461632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03050879208936878</v>
+      </c>
+      <c r="F43">
+        <v>-0.02255947515389269</v>
+      </c>
+      <c r="G43">
+        <v>0.005759201659387534</v>
+      </c>
+      <c r="H43">
+        <v>0.01967563787945145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01863785952552753</v>
+        <v>0.01056128110725623</v>
       </c>
       <c r="C44">
-        <v>0.02810951718499475</v>
+        <v>0.05164354079605635</v>
       </c>
       <c r="D44">
-        <v>0.09485008901324496</v>
+        <v>0.09136961894543763</v>
       </c>
       <c r="E44">
-        <v>0.08306735160031703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07854062660733942</v>
+      </c>
+      <c r="F44">
+        <v>-0.03611467438300515</v>
+      </c>
+      <c r="G44">
+        <v>0.04329672268890242</v>
+      </c>
+      <c r="H44">
+        <v>0.02714055521004273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002325438896631485</v>
+        <v>-0.001292987995439526</v>
       </c>
       <c r="C46">
-        <v>0.03107613683482678</v>
+        <v>0.04332433538969011</v>
       </c>
       <c r="D46">
-        <v>0.08078912540450997</v>
+        <v>0.06262471653912927</v>
       </c>
       <c r="E46">
-        <v>0.04600373033399151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08100774300399922</v>
+      </c>
+      <c r="F46">
+        <v>-0.03122668446562712</v>
+      </c>
+      <c r="G46">
+        <v>0.02406006630503759</v>
+      </c>
+      <c r="H46">
+        <v>-0.0002901508783737918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0670284327529435</v>
+        <v>0.03114927568480482</v>
       </c>
       <c r="C47">
-        <v>0.1154241503719648</v>
+        <v>0.1252873171711262</v>
       </c>
       <c r="D47">
-        <v>0.06092974514190776</v>
+        <v>0.0214768771547632</v>
       </c>
       <c r="E47">
-        <v>0.02645661706169825</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.001006929382769351</v>
+      </c>
+      <c r="F47">
+        <v>0.004694376821697616</v>
+      </c>
+      <c r="G47">
+        <v>-0.02011557095483511</v>
+      </c>
+      <c r="H47">
+        <v>0.01134268293516882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00779429919526018</v>
+        <v>0.01352262997224657</v>
       </c>
       <c r="C48">
-        <v>0.0178082512222818</v>
+        <v>0.03463024032310176</v>
       </c>
       <c r="D48">
-        <v>0.06363429737481312</v>
+        <v>0.0645915449224696</v>
       </c>
       <c r="E48">
-        <v>0.06566904217651424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.05122829569058481</v>
+      </c>
+      <c r="F48">
+        <v>-0.05585642406783854</v>
+      </c>
+      <c r="G48">
+        <v>0.02382454753698095</v>
+      </c>
+      <c r="H48">
+        <v>0.01812110312812454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002157280699472789</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001463570091068384</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.002944573318386392</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0006512667161041792</v>
+      </c>
+      <c r="F49">
+        <v>0.000428287692173105</v>
+      </c>
+      <c r="G49">
+        <v>-0.002268259820693152</v>
+      </c>
+      <c r="H49">
+        <v>-0.002501653257964957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.02993806552081867</v>
+        <v>0.01424241774316829</v>
       </c>
       <c r="C50">
-        <v>0.05869476142227865</v>
+        <v>0.07593882818183895</v>
       </c>
       <c r="D50">
-        <v>0.05940184504143759</v>
+        <v>0.04191671133032112</v>
       </c>
       <c r="E50">
-        <v>0.01934681122711481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03106142817372414</v>
+      </c>
+      <c r="F50">
+        <v>-0.008245997609772375</v>
+      </c>
+      <c r="G50">
+        <v>0.01628170079618819</v>
+      </c>
+      <c r="H50">
+        <v>0.01961317816534684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005207777993851906</v>
+        <v>-0.004085832958894725</v>
       </c>
       <c r="C51">
-        <v>0.005574908808051653</v>
+        <v>0.01848764643234654</v>
       </c>
       <c r="D51">
-        <v>0.06097797466852309</v>
+        <v>0.04009339717818132</v>
       </c>
       <c r="E51">
-        <v>0.0384872952901654</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05825585117854605</v>
+      </c>
+      <c r="F51">
+        <v>-0.03764331425752466</v>
+      </c>
+      <c r="G51">
+        <v>0.04982882008774586</v>
+      </c>
+      <c r="H51">
+        <v>0.0002529779853543618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1018455519811062</v>
+        <v>0.05947451719994554</v>
       </c>
       <c r="C53">
-        <v>0.1370565537833373</v>
+        <v>0.1630684166217058</v>
       </c>
       <c r="D53">
-        <v>-0.001464098068020213</v>
+        <v>-0.02161681112958021</v>
       </c>
       <c r="E53">
-        <v>0.03426744160568472</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02707515746546868</v>
+      </c>
+      <c r="F53">
+        <v>-0.03957936000136491</v>
+      </c>
+      <c r="G53">
+        <v>0.008689902881152043</v>
+      </c>
+      <c r="H53">
+        <v>0.007180190540389711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.006875346391774753</v>
+        <v>0.01155999537492223</v>
       </c>
       <c r="C54">
-        <v>0.02286174397965859</v>
+        <v>0.04075669614682178</v>
       </c>
       <c r="D54">
-        <v>0.08964555757054528</v>
+        <v>0.07239692151735813</v>
       </c>
       <c r="E54">
-        <v>0.03429998795918111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.04670874038172927</v>
+      </c>
+      <c r="F54">
+        <v>-0.008260236882262044</v>
+      </c>
+      <c r="G54">
+        <v>0.02639855648089812</v>
+      </c>
+      <c r="H54">
+        <v>0.02878171196802457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08404650059690515</v>
+        <v>0.04173473828962315</v>
       </c>
       <c r="C55">
-        <v>0.1142783598548327</v>
+        <v>0.128200221508672</v>
       </c>
       <c r="D55">
-        <v>0.0007168400390786651</v>
+        <v>-0.04529620056602732</v>
       </c>
       <c r="E55">
-        <v>-0.007958506818157022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.007892986426416653</v>
+      </c>
+      <c r="F55">
+        <v>-0.001509548459232217</v>
+      </c>
+      <c r="G55">
+        <v>0.01506829263274206</v>
+      </c>
+      <c r="H55">
+        <v>-0.005539372533281156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1253897665947357</v>
+        <v>0.06069305376568554</v>
       </c>
       <c r="C56">
-        <v>0.1606197377363323</v>
+        <v>0.1926120085651227</v>
       </c>
       <c r="D56">
-        <v>0.02690918237256668</v>
+        <v>-0.03918564480679557</v>
       </c>
       <c r="E56">
-        <v>-0.01184361690966933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03205830687661538</v>
+      </c>
+      <c r="F56">
+        <v>-0.001196467176076385</v>
+      </c>
+      <c r="G56">
+        <v>0.06759672914690025</v>
+      </c>
+      <c r="H56">
+        <v>0.004440651091312172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003928892282307367</v>
+        <v>0.009200993788519162</v>
       </c>
       <c r="C58">
-        <v>0.01796867418653525</v>
+        <v>0.06945755308301098</v>
       </c>
       <c r="D58">
-        <v>0.2244625562890171</v>
+        <v>0.2609044717519876</v>
       </c>
       <c r="E58">
-        <v>0.1869974031566266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.09738106698734197</v>
+      </c>
+      <c r="F58">
+        <v>-0.1408168849797733</v>
+      </c>
+      <c r="G58">
+        <v>0.1663645548932876</v>
+      </c>
+      <c r="H58">
+        <v>0.08050439481277381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2025426916856398</v>
+        <v>0.2588135465164769</v>
       </c>
       <c r="C59">
-        <v>-0.1220355782817328</v>
+        <v>-0.05615838436780199</v>
       </c>
       <c r="D59">
-        <v>0.0533941249665792</v>
+        <v>0.04326041989808425</v>
       </c>
       <c r="E59">
-        <v>0.03910194708890887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01015451441690548</v>
+      </c>
+      <c r="F59">
+        <v>-0.01868629387381709</v>
+      </c>
+      <c r="G59">
+        <v>0.02887807240455897</v>
+      </c>
+      <c r="H59">
+        <v>-0.03579958441141454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1758508621692537</v>
+        <v>0.1528443858114656</v>
       </c>
       <c r="C60">
-        <v>0.1083513075977081</v>
+        <v>0.1647915907488488</v>
       </c>
       <c r="D60">
-        <v>0.1213642523944047</v>
+        <v>0.03713766637287658</v>
       </c>
       <c r="E60">
-        <v>-0.05739699904006995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1085012217572189</v>
+      </c>
+      <c r="F60">
+        <v>0.194741850079792</v>
+      </c>
+      <c r="G60">
+        <v>-0.2549105745997863</v>
+      </c>
+      <c r="H60">
+        <v>-0.1441710633457421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0223389240428159</v>
+        <v>0.0136143099372541</v>
       </c>
       <c r="C61">
-        <v>0.05902823060993827</v>
+        <v>0.08186431624421589</v>
       </c>
       <c r="D61">
-        <v>0.07786704929628022</v>
+        <v>0.05515503140993054</v>
       </c>
       <c r="E61">
-        <v>0.01069074867524838</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06215258543348979</v>
+      </c>
+      <c r="F61">
+        <v>0.01517180761066973</v>
+      </c>
+      <c r="G61">
+        <v>-0.005039052932224597</v>
+      </c>
+      <c r="H61">
+        <v>0.002775442830392966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01054682147588868</v>
+        <v>0.01565049552160599</v>
       </c>
       <c r="C63">
-        <v>0.02677124789610148</v>
+        <v>0.04624486291954148</v>
       </c>
       <c r="D63">
-        <v>0.07700701244996427</v>
+        <v>0.04714787524896367</v>
       </c>
       <c r="E63">
-        <v>0.03834565835804846</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.08300854426319418</v>
+      </c>
+      <c r="F63">
+        <v>-0.01924447107921053</v>
+      </c>
+      <c r="G63">
+        <v>0.007909867612516427</v>
+      </c>
+      <c r="H63">
+        <v>0.009188293031222575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04408695135639236</v>
+        <v>0.01509987970784346</v>
       </c>
       <c r="C64">
-        <v>0.09393472404344699</v>
+        <v>0.1052624047714011</v>
       </c>
       <c r="D64">
-        <v>0.01687907373178545</v>
+        <v>0.007424721804667249</v>
       </c>
       <c r="E64">
-        <v>0.02515249252177672</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03725373712853967</v>
+      </c>
+      <c r="F64">
+        <v>-0.01794945314825678</v>
+      </c>
+      <c r="G64">
+        <v>-0.0271219086530133</v>
+      </c>
+      <c r="H64">
+        <v>0.03842544229290611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02627638152163849</v>
+        <v>0.02622269536697835</v>
       </c>
       <c r="C65">
-        <v>0.01911545000164714</v>
+        <v>0.04549826206978346</v>
       </c>
       <c r="D65">
-        <v>0.09397091098517348</v>
+        <v>0.09185558835368317</v>
       </c>
       <c r="E65">
-        <v>0.03959345763352719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.07092530053918245</v>
+      </c>
+      <c r="F65">
+        <v>0.01046421532272679</v>
+      </c>
+      <c r="G65">
+        <v>-0.04832493380804428</v>
+      </c>
+      <c r="H65">
+        <v>0.02298695244043985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01906349793417062</v>
+        <v>0.007615135841360144</v>
       </c>
       <c r="C66">
-        <v>0.07487095208121623</v>
+        <v>0.1100225326177573</v>
       </c>
       <c r="D66">
-        <v>0.1253172408176716</v>
+        <v>0.103025170757272</v>
       </c>
       <c r="E66">
-        <v>0.03025518536303577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.08450492372194614</v>
+      </c>
+      <c r="F66">
+        <v>0.008293073773266853</v>
+      </c>
+      <c r="G66">
+        <v>0.02156929912750956</v>
+      </c>
+      <c r="H66">
+        <v>0.01697749945436974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01895649097012592</v>
+        <v>0.02020081572834409</v>
       </c>
       <c r="C67">
-        <v>0.02022982168285388</v>
+        <v>0.03648847949817009</v>
       </c>
       <c r="D67">
-        <v>0.05473269739334242</v>
+        <v>0.04620201879546387</v>
       </c>
       <c r="E67">
-        <v>0.0009948879288026371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03539928765220798</v>
+      </c>
+      <c r="F67">
+        <v>0.01964462564429289</v>
+      </c>
+      <c r="G67">
+        <v>0.01246377512691138</v>
+      </c>
+      <c r="H67">
+        <v>0.02723118148645134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2170864418509293</v>
+        <v>0.2801287742782445</v>
       </c>
       <c r="C68">
-        <v>-0.1341251874745864</v>
+        <v>-0.06800352499517878</v>
       </c>
       <c r="D68">
-        <v>0.02748625661813471</v>
+        <v>0.03198315167656595</v>
       </c>
       <c r="E68">
-        <v>0.02857873492213779</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00744885191754753</v>
+      </c>
+      <c r="F68">
+        <v>-0.02357941541482708</v>
+      </c>
+      <c r="G68">
+        <v>0.05333466583523722</v>
+      </c>
+      <c r="H68">
+        <v>-0.005590872865582699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05092416344624929</v>
+        <v>0.01620981919256873</v>
       </c>
       <c r="C69">
-        <v>0.1164767689356141</v>
+        <v>0.1122912506952978</v>
       </c>
       <c r="D69">
-        <v>0.07568164455868491</v>
+        <v>0.01746061465503152</v>
       </c>
       <c r="E69">
-        <v>0.03027137278410985</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0111743186491576</v>
+      </c>
+      <c r="F69">
+        <v>0.01161753407859071</v>
+      </c>
+      <c r="G69">
+        <v>-0.009631071658591671</v>
+      </c>
+      <c r="H69">
+        <v>-0.005496563843421705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2348281111416554</v>
+        <v>0.2727188944801632</v>
       </c>
       <c r="C71">
-        <v>-0.156129380847327</v>
+        <v>-0.08380796321616335</v>
       </c>
       <c r="D71">
-        <v>0.0178645586944923</v>
+        <v>0.009211849914730969</v>
       </c>
       <c r="E71">
-        <v>0.005750180779899147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.006163892404191915</v>
+      </c>
+      <c r="F71">
+        <v>-0.01138166426771922</v>
+      </c>
+      <c r="G71">
+        <v>0.04446908843789293</v>
+      </c>
+      <c r="H71">
+        <v>0.01525374303722812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09747165762189987</v>
+        <v>0.06476257283755256</v>
       </c>
       <c r="C72">
-        <v>0.07852513375743429</v>
+        <v>0.1235074858478254</v>
       </c>
       <c r="D72">
-        <v>0.1041035534400285</v>
+        <v>0.04347605586987489</v>
       </c>
       <c r="E72">
-        <v>0.02705132130690312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08185412681514884</v>
+      </c>
+      <c r="F72">
+        <v>0.01791547569333002</v>
+      </c>
+      <c r="G72">
+        <v>-0.03320774072308964</v>
+      </c>
+      <c r="H72">
+        <v>0.002762170461166435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1684722503435964</v>
+        <v>0.1574239629056599</v>
       </c>
       <c r="C73">
-        <v>0.08324975581560219</v>
+        <v>0.1630361309173662</v>
       </c>
       <c r="D73">
-        <v>0.1830787134427833</v>
+        <v>0.05391175404953848</v>
       </c>
       <c r="E73">
-        <v>-0.09186874199242534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2729900607596207</v>
+      </c>
+      <c r="F73">
+        <v>0.293801822058486</v>
+      </c>
+      <c r="G73">
+        <v>-0.4105452083202457</v>
+      </c>
+      <c r="H73">
+        <v>-0.1489031448608901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09724475666367119</v>
+        <v>0.05222599096616587</v>
       </c>
       <c r="C74">
-        <v>0.1216440141204936</v>
+        <v>0.1414467261940283</v>
       </c>
       <c r="D74">
-        <v>-0.04404499477795597</v>
+        <v>-0.04826492602769296</v>
       </c>
       <c r="E74">
-        <v>0.01612530674709156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0293958245209698</v>
+      </c>
+      <c r="F74">
+        <v>-0.03286932555968466</v>
+      </c>
+      <c r="G74">
+        <v>-0.00668378194285732</v>
+      </c>
+      <c r="H74">
+        <v>-0.004196496151087212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2059610182121672</v>
+        <v>0.09744113534469476</v>
       </c>
       <c r="C75">
-        <v>0.2201984973615126</v>
+        <v>0.2604490302505695</v>
       </c>
       <c r="D75">
-        <v>-0.05201698981376088</v>
+        <v>-0.1186255065817057</v>
       </c>
       <c r="E75">
-        <v>-0.09835006076425551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1178088776450278</v>
+      </c>
+      <c r="F75">
+        <v>0.05340840144410324</v>
+      </c>
+      <c r="G75">
+        <v>0.1041027959509465</v>
+      </c>
+      <c r="H75">
+        <v>0.08002503060520964</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1238146532173065</v>
+        <v>0.05924827556032092</v>
       </c>
       <c r="C76">
-        <v>0.1475678087709157</v>
+        <v>0.1770748172076951</v>
       </c>
       <c r="D76">
-        <v>0.006124277050792069</v>
+        <v>-0.04996926519156001</v>
       </c>
       <c r="E76">
-        <v>-0.02168297266507322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03779771640915439</v>
+      </c>
+      <c r="F76">
+        <v>0.007708860825180295</v>
+      </c>
+      <c r="G76">
+        <v>0.04214427777601466</v>
+      </c>
+      <c r="H76">
+        <v>0.01547656829850272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01240225050063271</v>
+        <v>0.002108483092547574</v>
       </c>
       <c r="C77">
-        <v>0.07946090472948117</v>
+        <v>0.1250619324846517</v>
       </c>
       <c r="D77">
-        <v>0.2290233216055061</v>
+        <v>0.5400709300050341</v>
       </c>
       <c r="E77">
-        <v>0.1184557309437956</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7493666854818968</v>
+      </c>
+      <c r="F77">
+        <v>0.1434624766771647</v>
+      </c>
+      <c r="G77">
+        <v>-0.2039366142038497</v>
+      </c>
+      <c r="H77">
+        <v>-0.01038790952989961</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02877226420867774</v>
+        <v>0.02091819188775834</v>
       </c>
       <c r="C78">
-        <v>0.07424332758567659</v>
+        <v>0.09549442865701172</v>
       </c>
       <c r="D78">
-        <v>0.1468668025947928</v>
+        <v>0.0797522706521307</v>
       </c>
       <c r="E78">
-        <v>0.09253182945490679</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08902941459818146</v>
+      </c>
+      <c r="F78">
+        <v>-0.04224241491444253</v>
+      </c>
+      <c r="G78">
+        <v>0.09047340224692693</v>
+      </c>
+      <c r="H78">
+        <v>-0.03185961042603789</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1049891940904077</v>
+        <v>0.05060671999225874</v>
       </c>
       <c r="C79">
-        <v>0.2131059905589202</v>
+        <v>0.2160865258832625</v>
       </c>
       <c r="D79">
-        <v>-0.506115012058596</v>
+        <v>-0.1389366706454694</v>
       </c>
       <c r="E79">
-        <v>0.7553175072268148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.08835638582702081</v>
+      </c>
+      <c r="F79">
+        <v>-0.7942419901627283</v>
+      </c>
+      <c r="G79">
+        <v>-0.4189849157285351</v>
+      </c>
+      <c r="H79">
+        <v>-0.01936247186448252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003090302010397115</v>
+        <v>0.007737155533627152</v>
       </c>
       <c r="C80">
-        <v>0.04725615250583424</v>
+        <v>0.04691005366078244</v>
       </c>
       <c r="D80">
-        <v>0.0458156589443437</v>
+        <v>0.02491025968117881</v>
       </c>
       <c r="E80">
-        <v>0.005839816408837815</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06567693531947857</v>
+      </c>
+      <c r="F80">
+        <v>0.003408571353262386</v>
+      </c>
+      <c r="G80">
+        <v>0.02356453807529022</v>
+      </c>
+      <c r="H80">
+        <v>-0.08903516275298554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1006456750829256</v>
+        <v>0.03573619343238308</v>
       </c>
       <c r="C81">
-        <v>0.1425270288831476</v>
+        <v>0.1591171207198927</v>
       </c>
       <c r="D81">
-        <v>-0.0712755236703287</v>
+        <v>-0.070724490543541</v>
       </c>
       <c r="E81">
-        <v>-0.008825495096853661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05958987246305261</v>
+      </c>
+      <c r="F81">
+        <v>-0.04939987687589033</v>
+      </c>
+      <c r="G81">
+        <v>0.06934667159222271</v>
+      </c>
+      <c r="H81">
+        <v>-0.004513127249059361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2042871042146089</v>
+        <v>0.07939910048564278</v>
       </c>
       <c r="C82">
-        <v>0.313891122523435</v>
+        <v>0.2956981285276931</v>
       </c>
       <c r="D82">
-        <v>-0.1027906666703638</v>
+        <v>-0.2163506919993735</v>
       </c>
       <c r="E82">
-        <v>-0.2359743119299844</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1201344329066685</v>
+      </c>
+      <c r="F82">
+        <v>0.1202108854485147</v>
+      </c>
+      <c r="G82">
+        <v>0.1466752270857576</v>
+      </c>
+      <c r="H82">
+        <v>0.006586081147988668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01318567580238178</v>
+        <v>-0.007496554368098648</v>
       </c>
       <c r="C83">
-        <v>0.04863510589476719</v>
+        <v>0.01742422196089367</v>
       </c>
       <c r="D83">
-        <v>0.007582996224804495</v>
+        <v>0.02524617899321881</v>
       </c>
       <c r="E83">
-        <v>0.04060885397814665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09269992022773745</v>
+      </c>
+      <c r="F83">
+        <v>-0.09925925608792484</v>
+      </c>
+      <c r="G83">
+        <v>0.2603219647726024</v>
+      </c>
+      <c r="H83">
+        <v>-0.8978281392842885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.000274935550018353</v>
+        <v>-0.003908932911406278</v>
       </c>
       <c r="C84">
-        <v>0.002231867228099237</v>
+        <v>0.01740175794280211</v>
       </c>
       <c r="D84">
-        <v>0.009171826732296938</v>
+        <v>0.04159633113396378</v>
       </c>
       <c r="E84">
-        <v>0.0002674318880950366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01836982070290992</v>
+      </c>
+      <c r="F84">
+        <v>-0.02731941476135548</v>
+      </c>
+      <c r="G84">
+        <v>0.05303938817612042</v>
+      </c>
+      <c r="H84">
+        <v>0.05987290119622059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.126857295541672</v>
+        <v>0.05511910128867748</v>
       </c>
       <c r="C85">
-        <v>0.1547857320200102</v>
+        <v>0.1759678140356587</v>
       </c>
       <c r="D85">
-        <v>-0.0827738271260085</v>
+        <v>-0.1137380095070527</v>
       </c>
       <c r="E85">
-        <v>0.005642246043738539</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02262457886556847</v>
+      </c>
+      <c r="F85">
+        <v>-0.05839254276369564</v>
+      </c>
+      <c r="G85">
+        <v>0.02023350466340544</v>
+      </c>
+      <c r="H85">
+        <v>0.0185539354602961</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02306919493724105</v>
+        <v>0.01659653240145652</v>
       </c>
       <c r="C86">
-        <v>0.0103099358326306</v>
+        <v>0.04137267964750505</v>
       </c>
       <c r="D86">
-        <v>0.1141075586801502</v>
+        <v>0.1104607800617352</v>
       </c>
       <c r="E86">
-        <v>0.05187750334008531</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01122921526717283</v>
+      </c>
+      <c r="F86">
+        <v>-0.02243640497043376</v>
+      </c>
+      <c r="G86">
+        <v>-0.007307827990638028</v>
+      </c>
+      <c r="H86">
+        <v>0.01347216937509041</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02069613101840344</v>
+        <v>0.01044125363301272</v>
       </c>
       <c r="C87">
-        <v>0.03525250761087462</v>
+        <v>0.06926772507608879</v>
       </c>
       <c r="D87">
-        <v>0.1358670003975159</v>
+        <v>0.1237610599125849</v>
       </c>
       <c r="E87">
-        <v>0.09246032881371118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.06334425580955988</v>
+      </c>
+      <c r="F87">
+        <v>-0.04374382159415267</v>
+      </c>
+      <c r="G87">
+        <v>0.07939892265983672</v>
+      </c>
+      <c r="H87">
+        <v>0.0034613886820526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04494210395949978</v>
+        <v>0.0333003397818551</v>
       </c>
       <c r="C88">
-        <v>0.05100453592201749</v>
+        <v>0.07208412344407979</v>
       </c>
       <c r="D88">
-        <v>0.004308014307230403</v>
+        <v>0.01113867232821525</v>
       </c>
       <c r="E88">
-        <v>0.02378457479382141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03394336372044337</v>
+      </c>
+      <c r="F88">
+        <v>-0.019002284277953</v>
+      </c>
+      <c r="G88">
+        <v>-0.009785433330196757</v>
+      </c>
+      <c r="H88">
+        <v>0.0140731202817392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3461912984106223</v>
+        <v>0.3959864793466189</v>
       </c>
       <c r="C89">
-        <v>-0.2913823417254114</v>
+        <v>-0.165158245701889</v>
       </c>
       <c r="D89">
-        <v>0.01871013553766999</v>
+        <v>0.04942264593341893</v>
       </c>
       <c r="E89">
-        <v>0.1076906890727517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03072231722728377</v>
+      </c>
+      <c r="F89">
+        <v>-0.07802603298304067</v>
+      </c>
+      <c r="G89">
+        <v>0.08342236019277324</v>
+      </c>
+      <c r="H89">
+        <v>-0.04734172026741555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2800730262517872</v>
+        <v>0.3232295628276591</v>
       </c>
       <c r="C90">
-        <v>-0.2135779882750943</v>
+        <v>-0.1052138898538522</v>
       </c>
       <c r="D90">
-        <v>0.06336926962435177</v>
+        <v>0.03461263347378704</v>
       </c>
       <c r="E90">
-        <v>0.007167690470649276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0009914812394529839</v>
+      </c>
+      <c r="F90">
+        <v>0.007701461119058498</v>
+      </c>
+      <c r="G90">
+        <v>0.05762016221421819</v>
+      </c>
+      <c r="H90">
+        <v>-0.00584187233734966</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1328432678038565</v>
+        <v>0.06607569253832089</v>
       </c>
       <c r="C91">
-        <v>0.2023673140229778</v>
+        <v>0.2032030679632068</v>
       </c>
       <c r="D91">
-        <v>-0.08726250546452644</v>
+        <v>-0.09692701007460543</v>
       </c>
       <c r="E91">
-        <v>0.03339765500942839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08457196259830457</v>
+      </c>
+      <c r="F91">
+        <v>-0.06039329067223052</v>
+      </c>
+      <c r="G91">
+        <v>0.01441735327160497</v>
+      </c>
+      <c r="H91">
+        <v>-0.02145219379157723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2665399666718528</v>
+        <v>0.3372674750927033</v>
       </c>
       <c r="C92">
-        <v>-0.2406804918913596</v>
+        <v>-0.1454283255505654</v>
       </c>
       <c r="D92">
-        <v>-0.04345642520694175</v>
+        <v>0.02613631335409223</v>
       </c>
       <c r="E92">
-        <v>0.01645000372601546</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06418628282895314</v>
+      </c>
+      <c r="F92">
+        <v>-0.0383062679084818</v>
+      </c>
+      <c r="G92">
+        <v>-0.0002676082935111222</v>
+      </c>
+      <c r="H92">
+        <v>0.1355342809971592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2962851523613012</v>
+        <v>0.3287599283711206</v>
       </c>
       <c r="C93">
-        <v>-0.2196206876828752</v>
+        <v>-0.1195933118830731</v>
       </c>
       <c r="D93">
-        <v>-0.02669117720790799</v>
+        <v>-0.02566034587182598</v>
       </c>
       <c r="E93">
-        <v>-0.01052467734891046</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.007445828849051523</v>
+      </c>
+      <c r="F93">
+        <v>-0.00754703854964342</v>
+      </c>
+      <c r="G93">
+        <v>-0.02389978660216855</v>
+      </c>
+      <c r="H93">
+        <v>0.02165701627104925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2514582212563805</v>
+        <v>0.1219433881966434</v>
       </c>
       <c r="C94">
-        <v>0.2872539318589668</v>
+        <v>0.3207440217875551</v>
       </c>
       <c r="D94">
-        <v>-0.2033837861699331</v>
+        <v>-0.3410924344302753</v>
       </c>
       <c r="E94">
-        <v>-0.3098177769434772</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1587250429541701</v>
+      </c>
+      <c r="F94">
+        <v>0.150738480653442</v>
+      </c>
+      <c r="G94">
+        <v>0.2912840550533899</v>
+      </c>
+      <c r="H94">
+        <v>0.1023447417250799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003700288028459948</v>
+        <v>0.01515991687157481</v>
       </c>
       <c r="C95">
-        <v>0.05262783341646493</v>
+        <v>0.07650419344995703</v>
       </c>
       <c r="D95">
-        <v>0.1166815033264685</v>
+        <v>0.1412265956425254</v>
       </c>
       <c r="E95">
-        <v>0.04173243820631777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0803689652341477</v>
+      </c>
+      <c r="F95">
+        <v>0.03671258752918756</v>
+      </c>
+      <c r="G95">
+        <v>-0.07451155323243588</v>
+      </c>
+      <c r="H95">
+        <v>0.06356571147230214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002671962974111913</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009171500662677193</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0002323327604310118</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003452959991736295</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006154346445405945</v>
+      </c>
+      <c r="G97">
+        <v>0.001171523877448089</v>
+      </c>
+      <c r="H97">
+        <v>0.005708874162225885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.145236959399754</v>
+        <v>0.1347232892716889</v>
       </c>
       <c r="C98">
-        <v>0.1023508791344431</v>
+        <v>0.1621359459540496</v>
       </c>
       <c r="D98">
-        <v>0.122605014440563</v>
+        <v>0.01121316720363422</v>
       </c>
       <c r="E98">
-        <v>-0.101261142349065</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1752286241228673</v>
+      </c>
+      <c r="F98">
+        <v>0.2462238537370633</v>
+      </c>
+      <c r="G98">
+        <v>-0.3044861075443495</v>
+      </c>
+      <c r="H98">
+        <v>-0.127761470314819</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002930172576089392</v>
+        <v>0.002523584649651624</v>
       </c>
       <c r="C101">
-        <v>0.02032736123860764</v>
+        <v>0.03986804192205859</v>
       </c>
       <c r="D101">
-        <v>0.07065798436267355</v>
+        <v>0.085493223017516</v>
       </c>
       <c r="E101">
-        <v>0.04978645388429959</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1051948370575104</v>
+      </c>
+      <c r="F101">
+        <v>-0.03598904278013701</v>
+      </c>
+      <c r="G101">
+        <v>0.01467082292559097</v>
+      </c>
+      <c r="H101">
+        <v>-0.03498966375909997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08547366375087573</v>
+        <v>0.02095413462316992</v>
       </c>
       <c r="C102">
-        <v>0.1670580015091722</v>
+        <v>0.137010706810766</v>
       </c>
       <c r="D102">
-        <v>-0.01151215413484462</v>
+        <v>-0.09256214761683748</v>
       </c>
       <c r="E102">
-        <v>-0.1059543836676387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.06230592052351643</v>
+      </c>
+      <c r="F102">
+        <v>0.08421228017709771</v>
+      </c>
+      <c r="G102">
+        <v>0.01208011170393805</v>
+      </c>
+      <c r="H102">
+        <v>-0.0258079517685646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
